--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.674698829384737</v>
+        <v>0.7503183333333333</v>
       </c>
       <c r="H2">
-        <v>0.674698829384737</v>
+        <v>2.250955</v>
       </c>
       <c r="I2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="J2">
-        <v>0.001686146723338692</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87798191611927</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N2">
-        <v>1.87798191611927</v>
+        <v>5.671459</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9442400689667343</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9442400689667344</v>
       </c>
       <c r="Q2">
-        <v>1.267072200411377</v>
+        <v>1.418466554816111</v>
       </c>
       <c r="R2">
-        <v>1.267072200411377</v>
+        <v>12.766198993345</v>
       </c>
       <c r="S2">
-        <v>0.001686146723338692</v>
+        <v>0.001767362564782221</v>
       </c>
       <c r="T2">
-        <v>0.001686146723338692</v>
+        <v>0.001767362564782221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>382.495329618537</v>
+        <v>0.7503183333333333</v>
       </c>
       <c r="H3">
-        <v>382.495329618537</v>
+        <v>2.250955</v>
       </c>
       <c r="I3">
-        <v>0.9558979779419177</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="J3">
-        <v>0.9558979779419177</v>
+        <v>0.001871730106429624</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.87798191611927</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N3">
-        <v>1.87798191611927</v>
+        <v>0.334915</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.05575993103326565</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.05575993103326566</v>
       </c>
       <c r="Q3">
-        <v>718.3193120236919</v>
+        <v>0.08376428820277777</v>
       </c>
       <c r="R3">
-        <v>718.3193120236919</v>
+        <v>0.753878593825</v>
       </c>
       <c r="S3">
-        <v>0.9558979779419177</v>
+        <v>0.0001043675416474028</v>
       </c>
       <c r="T3">
-        <v>0.9558979779419177</v>
+        <v>0.0001043675416474028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.9723909785353</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H4">
-        <v>16.9723909785353</v>
+        <v>1149.392303</v>
       </c>
       <c r="I4">
-        <v>0.04241587533474363</v>
+        <v>0.9557508602453543</v>
       </c>
       <c r="J4">
-        <v>0.04241587533474363</v>
+        <v>0.9557508602453542</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.87798191611927</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N4">
-        <v>1.87798191611927</v>
+        <v>5.671459</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9442400689667343</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9442400689667344</v>
       </c>
       <c r="Q4">
-        <v>31.87384333099514</v>
+        <v>724.3034801533421</v>
       </c>
       <c r="R4">
-        <v>31.87384333099514</v>
+        <v>6518.731321380078</v>
       </c>
       <c r="S4">
-        <v>0.04241587533474363</v>
+        <v>0.9024582581930889</v>
       </c>
       <c r="T4">
-        <v>0.04241587533474363</v>
+        <v>0.902458258193089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>383.1307676666667</v>
+      </c>
+      <c r="H5">
+        <v>1149.392303</v>
+      </c>
+      <c r="I5">
+        <v>0.9557508602453543</v>
+      </c>
+      <c r="J5">
+        <v>0.9557508602453542</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.334915</v>
+      </c>
+      <c r="O5">
+        <v>0.05575993103326565</v>
+      </c>
+      <c r="P5">
+        <v>0.05575993103326566</v>
+      </c>
+      <c r="Q5">
+        <v>42.77208035102723</v>
+      </c>
+      <c r="R5">
+        <v>384.948723159245</v>
+      </c>
+      <c r="S5">
+        <v>0.05329260205226528</v>
+      </c>
+      <c r="T5">
+        <v>0.05329260205226528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16.98778433333333</v>
+      </c>
+      <c r="H6">
+        <v>50.963353</v>
+      </c>
+      <c r="I6">
+        <v>0.04237740964821621</v>
+      </c>
+      <c r="J6">
+        <v>0.0423774096482162</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.671459</v>
+      </c>
+      <c r="O6">
+        <v>0.9442400689667343</v>
+      </c>
+      <c r="P6">
+        <v>0.9442400689667344</v>
+      </c>
+      <c r="Q6">
+        <v>32.11517411578078</v>
+      </c>
+      <c r="R6">
+        <v>289.036567042027</v>
+      </c>
+      <c r="S6">
+        <v>0.04001444820886323</v>
+      </c>
+      <c r="T6">
+        <v>0.04001444820886322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>16.98778433333333</v>
+      </c>
+      <c r="H7">
+        <v>50.963353</v>
+      </c>
+      <c r="I7">
+        <v>0.04237740964821621</v>
+      </c>
+      <c r="J7">
+        <v>0.0423774096482162</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.334915</v>
+      </c>
+      <c r="O7">
+        <v>0.05575993103326565</v>
+      </c>
+      <c r="P7">
+        <v>0.05575993103326566</v>
+      </c>
+      <c r="Q7">
+        <v>1.896487929999445</v>
+      </c>
+      <c r="R7">
+        <v>17.068391369995</v>
+      </c>
+      <c r="S7">
+        <v>0.002362961439352982</v>
+      </c>
+      <c r="T7">
+        <v>0.002362961439352982</v>
       </c>
     </row>
   </sheetData>
